--- a/documenten ToolsForEver/normalisatie bijlage c.xlsx
+++ b/documenten ToolsForEver/normalisatie bijlage c.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>stap 0</t>
   </si>
@@ -212,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -328,20 +328,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -350,12 +341,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -379,9 +364,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -394,9 +376,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -691,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -717,14 +705,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -734,86 +722,86 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="J2" s="36" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="42" t="s">
         <v>11</v>
       </c>
     </row>
@@ -821,28 +809,28 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -850,22 +838,22 @@
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="44" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -873,18 +861,22 @@
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -892,18 +884,18 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44" t="s">
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -911,18 +903,18 @@
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39" t="s">
         <v>33</v>
       </c>
     </row>
@@ -930,18 +922,18 @@
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -949,31 +941,44 @@
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/documenten ToolsForEver/normalisatie bijlage c.xlsx
+++ b/documenten ToolsForEver/normalisatie bijlage c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="6228"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>stap 0</t>
   </si>
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -350,12 +350,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -385,9 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,6 +388,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -691,40 +693,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="46"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -734,86 +736,86 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="J2" s="36" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="42" t="s">
         <v>11</v>
       </c>
     </row>
@@ -821,28 +823,28 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -850,22 +852,22 @@
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="44" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -873,18 +875,22 @@
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -892,18 +898,18 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -911,18 +917,18 @@
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39" t="s">
         <v>33</v>
       </c>
     </row>
@@ -930,18 +936,16 @@
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -949,31 +953,44 @@
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -991,7 +1008,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1003,7 +1020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
